--- a/Data/EC/NIT-8909013215.xlsx
+++ b/Data/EC/NIT-8909013215.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21E930A4-6656-4597-A3E0-8A3346902F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{863AC6EE-3594-477C-81C7-9A63FC97113F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{72C7F814-3C19-4FED-AA41-07E5CC586D93}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6FCF302F-3A98-4798-9C27-4516F194A235}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="86">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,13 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1043966131</t>
-  </si>
-  <si>
-    <t>EMIR HABIB PALLARES CERVANTES</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1128047433</t>
+  </si>
+  <si>
+    <t>FRANKLIN BARRAGAN ECHEVERRIA</t>
+  </si>
+  <si>
+    <t>1610</t>
   </si>
   <si>
     <t>7938782</t>
@@ -80,202 +80,187 @@
     <t>ANDRES GUILLERMO PAJARO MORALES</t>
   </si>
   <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1076820808</t>
+  </si>
+  <si>
+    <t>WALTER AGUILAR MOSQUERA</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
     <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1128047433</t>
-  </si>
-  <si>
-    <t>FRANKLIN BARRAGAN ECHEVERRIA</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1076820808</t>
-  </si>
-  <si>
-    <t>WALTER AGUILAR MOSQUERA</t>
-  </si>
-  <si>
-    <t>1193551243</t>
-  </si>
-  <si>
-    <t>DANIELA PATRICIA MELGAREJO PEREIRA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -374,9 +359,159 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -394,156 +529,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -589,23 +574,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,10 +618,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,7 +674,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC81F76E-6796-6AB0-6BCF-8FB2A36612EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07EFD216-C0B8-6EFB-A45E-7F36267A3D4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,8 +1025,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B395444F-D001-4DD1-B45F-598EBD37BD09}">
-  <dimension ref="B2:J85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A14A7-6685-4F3C-9F2F-7DA6F6F261F9}">
+  <dimension ref="B2:J83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1052,7 +1037,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1065,7 +1050,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1110,7 +1095,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1142,12 +1127,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2091502</v>
+        <v>2068726</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1158,17 +1143,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F13" s="5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1195,13 +1180,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1218,10 +1203,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>11388</v>
+        <v>5344</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1336000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1244,7 +1229,7 @@
         <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1264,10 +1249,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1278,19 +1263,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>44213</v>
       </c>
       <c r="G19" s="18">
-        <v>1394598</v>
+        <v>1105310</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1307,13 +1292,13 @@
         <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1330,13 +1315,13 @@
         <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1347,19 +1332,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>44213</v>
       </c>
       <c r="G22" s="18">
-        <v>1394598</v>
+        <v>1105310</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1379,10 +1364,10 @@
         <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1402,10 +1387,10 @@
         <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1425,10 +1410,10 @@
         <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1448,10 +1433,10 @@
         <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1471,10 +1456,10 @@
         <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1494,10 +1479,10 @@
         <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1517,10 +1502,10 @@
         <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1540,10 +1525,10 @@
         <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1563,10 +1548,10 @@
         <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1586,10 +1571,10 @@
         <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1612,7 +1597,7 @@
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1635,7 +1620,7 @@
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1658,7 +1643,7 @@
         <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1681,7 +1666,7 @@
         <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1704,7 +1689,7 @@
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1727,7 +1712,7 @@
         <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1750,7 +1735,7 @@
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1773,7 +1758,7 @@
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1796,7 +1781,7 @@
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1819,7 +1804,7 @@
         <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1842,7 +1827,7 @@
         <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1865,7 +1850,7 @@
         <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1888,7 +1873,7 @@
         <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1911,7 +1896,7 @@
         <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1934,7 +1919,7 @@
         <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1957,7 +1942,7 @@
         <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1980,7 +1965,7 @@
         <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2003,7 +1988,7 @@
         <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2026,7 +2011,7 @@
         <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2049,7 +2034,7 @@
         <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2072,7 +2057,7 @@
         <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2095,7 +2080,7 @@
         <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2118,7 +2103,7 @@
         <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2141,7 +2126,7 @@
         <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2164,7 +2149,7 @@
         <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2187,7 +2172,7 @@
         <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2210,7 +2195,7 @@
         <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2233,7 +2218,7 @@
         <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2256,7 +2241,7 @@
         <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2276,10 +2261,10 @@
         <v>59</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G62" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2299,10 +2284,10 @@
         <v>60</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G63" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2322,10 +2307,10 @@
         <v>61</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2345,10 +2330,10 @@
         <v>62</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G65" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2368,10 +2353,10 @@
         <v>63</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G66" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2391,10 +2376,10 @@
         <v>64</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G67" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2414,10 +2399,10 @@
         <v>65</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G68" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2437,10 +2422,10 @@
         <v>66</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G69" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2460,10 +2445,10 @@
         <v>67</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2483,10 +2468,10 @@
         <v>68</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G71" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2506,10 +2491,10 @@
         <v>69</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G72" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2529,10 +2514,10 @@
         <v>70</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G73" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2552,10 +2537,10 @@
         <v>71</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G74" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2575,10 +2560,10 @@
         <v>72</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G75" s="18">
-        <v>1394598</v>
+        <v>1610185</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2589,121 +2574,75 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="F76" s="18">
-        <v>5344</v>
+        <v>40000</v>
       </c>
       <c r="G76" s="18">
-        <v>1336000</v>
+        <v>1610185</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F77" s="18">
-        <v>44213</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1105310</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F78" s="18">
-        <v>44213</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1105310</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="24">
-        <v>11388</v>
-      </c>
-      <c r="G79" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="32"/>
-      <c r="H84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="32"/>
-      <c r="H85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="B77" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G77" s="24">
+        <v>1610185</v>
+      </c>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="26"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="32"/>
+      <c r="H82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="H83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H82:J82"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
